--- a/HoatDongTraiNghiem/HoatDongTraiNghiem/Utils/Files/ds-kynangsong.xlsx
+++ b/HoatDongTraiNghiem/HoatDongTraiNghiem/Utils/Files/ds-kynangsong.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>DANH SÁCH KỸ NĂNG SỐNG, KỸ NĂNG XÃ HỘI</t>
   </si>
   <si>
-    <t>Từ ngày 20/01/2019 tới ngày 19/02/2019</t>
+    <t>Từ ngày 27/02/2019 tới ngày 29/03/2019</t>
   </si>
   <si>
     <t>STT</t>
@@ -60,33 +60,6 @@
   </si>
   <si>
     <t>EMAIL</t>
-  </si>
-  <si>
-    <t>THCS Võ Trường Toản</t>
-  </si>
-  <si>
-    <t>29/01/2019</t>
-  </si>
-  <si>
-    <t>21/01/2019</t>
-  </si>
-  <si>
-    <t>dwad wad aw</t>
-  </si>
-  <si>
-    <t>dwa dwa d awda</t>
-  </si>
-  <si>
-    <t>Kỹ năng sống</t>
-  </si>
-  <si>
-    <t>Thành Trương Hữu</t>
-  </si>
-  <si>
-    <t>Hiệu Trưởng</t>
-  </si>
-  <si>
-    <t>988670449</t>
   </si>
 </sst>
 </file>
@@ -162,7 +135,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:N7"/>
+  <dimension ref="A2:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -265,41 +238,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>1</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="0">
-        <v>2</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:I2"/>
